--- a/exported-data/subjects_20210129_125056.xlsx
+++ b/exported-data/subjects_20210129_125056.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepalsina/node/scraping-uoc-with-apify/exported-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64F5C3E-D61E-8D41-8CF5-52E5B602C551}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="154">
   <si>
     <t>Nom</t>
   </si>
@@ -478,11 +487,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.00;\ \(\$#,##0.00\);\ \-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -496,12 +505,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -513,23 +528,341 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="3">
-    <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="1"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -543,11 +876,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -557,7 +890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -571,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -585,7 +918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -599,7 +932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -613,7 +946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -627,7 +960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -641,7 +974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -655,7 +988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -669,7 +1002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -683,7 +1016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -697,7 +1030,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -711,7 +1044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -725,7 +1058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -739,7 +1072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -753,7 +1086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -767,7 +1100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -781,7 +1114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -795,7 +1128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -809,7 +1142,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -823,7 +1156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -837,11 +1170,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -851,7 +1184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -865,7 +1198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -879,7 +1212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -893,7 +1226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -907,7 +1240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -921,7 +1254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -935,7 +1268,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -949,7 +1282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -963,7 +1296,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -977,7 +1310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -991,7 +1324,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -1005,7 +1338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -1019,7 +1352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
@@ -1033,7 +1366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -1047,7 +1380,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -1061,7 +1394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
@@ -1075,7 +1408,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -1089,7 +1422,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -1103,7 +1436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
@@ -1117,7 +1450,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -1131,7 +1464,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
@@ -1145,7 +1478,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
@@ -1159,7 +1492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -1173,7 +1506,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -1187,7 +1520,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>104</v>
       </c>
@@ -1201,7 +1534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
@@ -1215,7 +1548,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
@@ -1229,7 +1562,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -1243,7 +1576,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
@@ -1257,7 +1590,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
@@ -1271,7 +1604,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>116</v>
       </c>
@@ -1285,7 +1618,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>118</v>
       </c>
@@ -1299,7 +1632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -1313,7 +1646,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>122</v>
       </c>
@@ -1327,7 +1660,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>124</v>
       </c>
@@ -1341,7 +1674,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>126</v>
       </c>
@@ -1355,7 +1688,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>128</v>
       </c>
@@ -1369,7 +1702,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>130</v>
       </c>
@@ -1383,7 +1716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>132</v>
       </c>
@@ -1397,7 +1730,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>134</v>
       </c>
@@ -1411,7 +1744,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>136</v>
       </c>
@@ -1425,7 +1758,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>138</v>
       </c>
@@ -1439,7 +1772,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>140</v>
       </c>
@@ -1453,7 +1786,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>142</v>
       </c>
@@ -1467,7 +1800,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>144</v>
       </c>
@@ -1481,7 +1814,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>146</v>
       </c>
@@ -1495,7 +1828,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>148</v>
       </c>
@@ -1509,7 +1842,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>150</v>
       </c>
@@ -1523,7 +1856,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>152</v>
       </c>
@@ -1537,7 +1870,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +1884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -1579,7 +1912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>13</v>
       </c>
@@ -1593,7 +1926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
@@ -1607,7 +1940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>19</v>
       </c>
@@ -1621,7 +1954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -1635,7 +1968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>25</v>
       </c>
@@ -1649,7 +1982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>23</v>
       </c>
@@ -1663,7 +1996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,7 +2010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>29</v>
       </c>
@@ -1691,7 +2024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>32</v>
       </c>
@@ -1705,7 +2038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>35</v>
       </c>
@@ -1719,7 +2052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>39</v>
       </c>
@@ -1733,7 +2066,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,7 +2080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>41</v>
       </c>
@@ -1761,7 +2094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>43</v>
       </c>
@@ -1775,7 +2108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>49</v>
       </c>
@@ -1789,7 +2122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>45</v>
       </c>
@@ -1803,7 +2136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
@@ -1817,7 +2150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>51</v>
       </c>
@@ -1831,7 +2164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>57</v>
       </c>
@@ -1845,7 +2178,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>55</v>
       </c>
@@ -1859,7 +2192,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>53</v>
       </c>
@@ -1873,7 +2206,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>61</v>
       </c>
@@ -1887,7 +2220,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>59</v>
       </c>
@@ -1901,7 +2234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>63</v>
       </c>
@@ -1915,7 +2248,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>65</v>
       </c>
@@ -1929,7 +2262,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>67</v>
       </c>
@@ -1943,7 +2276,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>72</v>
       </c>
@@ -1957,7 +2290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>69</v>
       </c>
@@ -1971,7 +2304,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>74</v>
       </c>
@@ -1985,7 +2318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>76</v>
       </c>
@@ -1999,7 +2332,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>78</v>
       </c>
@@ -2013,7 +2346,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>80</v>
       </c>
@@ -2027,7 +2360,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>84</v>
       </c>
@@ -2041,7 +2374,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>82</v>
       </c>
@@ -2055,7 +2388,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>86</v>
       </c>
@@ -2069,7 +2402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>88</v>
       </c>
@@ -2083,7 +2416,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>90</v>
       </c>
@@ -2097,7 +2430,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>94</v>
       </c>
@@ -2111,7 +2444,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>92</v>
       </c>
@@ -2125,7 +2458,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>96</v>
       </c>
@@ -2139,7 +2472,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>152</v>
       </c>
@@ -2153,7 +2486,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>106</v>
       </c>
@@ -2167,7 +2500,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>98</v>
       </c>
@@ -2181,7 +2514,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>100</v>
       </c>
@@ -2195,7 +2528,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>102</v>
       </c>
@@ -2209,7 +2542,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>104</v>
       </c>
@@ -2223,7 +2556,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>112</v>
       </c>
@@ -2237,7 +2570,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>114</v>
       </c>
@@ -2251,7 +2584,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>108</v>
       </c>
@@ -2265,7 +2598,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>110</v>
       </c>
@@ -2279,7 +2612,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>118</v>
       </c>
@@ -2293,7 +2626,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>122</v>
       </c>
@@ -2307,7 +2640,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>116</v>
       </c>
@@ -2321,7 +2654,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -2335,7 +2668,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>124</v>
       </c>
@@ -2349,7 +2682,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>126</v>
       </c>
@@ -2363,7 +2696,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>120</v>
       </c>
@@ -2377,7 +2710,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>130</v>
       </c>
@@ -2391,7 +2724,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
@@ -2405,7 +2738,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -2419,7 +2752,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>132</v>
       </c>
@@ -2433,7 +2766,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -2447,7 +2780,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>146</v>
       </c>
@@ -2461,7 +2794,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>144</v>
       </c>
@@ -2475,7 +2808,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -2489,7 +2822,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -2503,7 +2836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>148</v>
       </c>
@@ -2517,7 +2850,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>150</v>
       </c>
